--- a/pred_ohlcv/54_21/2020-01-24 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETC ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>1049.227513447306</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1123.826191445418</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>975.544956162399</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>328.410356162399</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>84.41035616239901</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>453.887656162399</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>13.88765616239903</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>13.88765616239903</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -912,7 +912,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>61.44205616239904</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>157.7584561623991</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>283.6784561623991</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>325.2184561623991</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>163.3263561623991</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>169.7235561623991</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1312.692610037414</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1607.159310037414</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1900.249210037414</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2115.542667783893</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1555.188367783893</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1644.218367783893</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1860.084567783893</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1869.111767783893</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2029.111767783893</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1559.126467783893</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1766.526467783893</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1779.796567783893</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1839.760767783893</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2485.145567783893</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2482.045567783893</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2481.824467783892</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2166.289367783892</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2163.289367783892</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2177.976367783892</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2656.154167783892</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2707.076267783892</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2178.376967783892</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2181.584567783892</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2041.536367783892</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2091.536367783892</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1774.099223652437</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1783.585623652437</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1819.144823652437</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1806.544823652437</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1808.690623652437</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1815.101023652437</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1429.469575532136</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1489.855775532136</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1419.602775532136</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1817.717475532136</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1697.639375532136</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-4093.091203515357</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4018.747603515357</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4219.321203515357</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-4442.262003515358</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2832.875203515357</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2792.428203515357</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2789.192003515358</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4837.836603515358</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-5069.748003515358</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-5037.529203515358</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4848.213303515358</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4917.965103515358</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-5407.599803515358</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-5773.510603515358</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-5497.287003515357</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-7126.165498882079</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-7174.46689888208</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-7038.954326348231</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-7262.187126348231</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-7344.119126348231</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-6853.873826348231</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-8450.767626348232</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-9161.978926348233</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9113.292926348233</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9566.190326348233</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-11915.60872878725</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-12073.98722878725</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-12069.97702878725</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-12071.61052878725</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-12778.55772878725</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-12678.05472878725</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-12881.97102878725</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-12390.74152878726</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-12033.38962878726</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-12082.07132878725</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-12138.42782878725</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-12142.14062878725</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-9152.472000125608</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-10293.26340012561</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-10180.16160012561</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-10274.89000012561</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-10372.26780012561</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-13109.13670012561</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12139.01020012561</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12477.36820012561</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-12944.3786001256</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-13100.4304001256</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-13211.6198001256</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 ETC ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>157.7584561623991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>283.6784561623991</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>325.2184561623991</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>163.3263561623991</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>169.7235561623991</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1312.692610037414</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1607.159310037414</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1900.249210037414</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1877.882110037414</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2124.214667783893</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2115.542667783893</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1555.188367783893</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1644.218367783893</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1741.584567783893</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1860.084567783893</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1869.111767783893</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2029.111767783893</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1837.058067783893</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2485.145567783893</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2482.045567783893</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2166.289367783892</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2163.289367783892</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2177.976367783892</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2351.716667783892</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-2656.154167783892</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-2707.076267783892</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-2178.376967783892</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2181.584567783892</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-2041.536367783892</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1783.585623652437</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1819.144823652437</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1815.101023652437</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-1478.860275532136</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1489.855775532136</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1671.497775532136</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3289.535261895772</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-4093.091203515357</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-4018.747603515357</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-4155.187003515357</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-4219.321203515357</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2680.877603515357</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2792.428203515357</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2789.192003515358</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-3798.583603515357</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4837.836603515358</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-7126.165498882079</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-7192.07329888208</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-7174.46689888208</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-7038.954326348231</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-7326.720326348231</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-7262.187126348231</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-7344.119126348231</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-6833.581826348231</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-6853.873826348231</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-8450.767626348232</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-9161.978926348233</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-9050.090026348233</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-9113.292926348233</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-9566.190326348233</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-11915.60872878725</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-11934.14602878725</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-12073.98722878725</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-12069.97702878725</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-12071.61052878725</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-12778.55772878725</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-12678.05472878725</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-12881.97102878725</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-12390.74152878726</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-12033.38962878726</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-12082.07132878725</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-12138.42782878725</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-12142.14062878725</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-9152.472000125608</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-9173.304900125608</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-10293.26340012561</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-10180.16160012561</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-10274.89000012561</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-10372.26780012561</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-13109.13670012561</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12139.01020012561</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12477.36820012561</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-12944.3786001256</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-12742.2226001256</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-13038.7371001256</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-13100.4304001256</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-13211.6198001256</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
